--- a/new kartochki/spk.xlsx
+++ b/new kartochki/spk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH66"/>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,22 +660,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2036</t>
+          <t>2066</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>064992182601</t>
+          <t>064992560218</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ORIJEN DOG ORIGINAL  6кг- Биологически соответствующий   корм для взрослых собак и щенков всех пород</t>
+          <t>ACANA DOG PRAIRIE POULTRY  2 кг /цыпленок+индейка/ низкозерновой корм для собак 2 кг/classics/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.11.2025</t>
+          <t>30.01.2026</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -712,22 +712,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2056</t>
+          <t>2028</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>064992187200</t>
+          <t>064992181123</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ORIJEN DOG FIT &amp; TRIM  2кг- Биологически соответствующий  корм для взрослых собак, склонных к полноте</t>
+          <t>ORIJEN PUPPY LARGE 11,4кг-Биологически соответствующий   корм для щенков крупных пород</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>02.08.2025</t>
+          <t>24.10.2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -764,22 +764,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2214</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>064992281182</t>
+          <t>064992185206</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ORIJEN CAT SIX FISH 1,8кг- Биологически соответствующий корм для кошек и котят всех пород с рыбой</t>
+          <t>ORIJEN DOG TUNDRA  2кг- Биологически соответствующий   корм для собак</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>05.12.2025</t>
+          <t>15.11.2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -816,22 +816,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>064992281540</t>
+          <t>4627079680191</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ORIJEN CAT SIX FISH 5,4кг- Биологически соответствующий    корм для кошек и котят всех пород с рыбой</t>
+          <t>BLITZ ADULT CAT CHICKEN /курица/Полнорационный корм для кошек 0,4 кг</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>05.12.2025</t>
+          <t>09.08.2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -868,22 +868,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2198</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>064992718848</t>
+          <t>4627079680764</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ORIJEN KITTEN 0,34кг- Биологически соответствующий   корм для кошек и котят всех пород с цыпленком и индейкой</t>
+          <t>BLITZ ADULT CATS POULTRY /домашняя птица/ Полнорационный корм для кошек 10 кг</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.11.2025</t>
+          <t>28.08.2025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -920,22 +920,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2203</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>064992718893</t>
+          <t>4627079681143</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ORIJEN CAT GUARDIAN 8  0,34кг- Биологически соответствующий   корм для кошек</t>
+          <t>BLITZ STERILISED CATS CHIKEN /курица/Полнорационный корм для стерилизованных кошек 0,4 кг</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.12.2025</t>
+          <t>01.11.2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -972,22 +972,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>064992718916</t>
+          <t>4627079680566</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ORIJEN CAT GUARDIAN 8  1,8 кг- Биологически соответствующий   корм для кошек</t>
+          <t>BLITZ KITTEN /индейка/ /Полнорационный корм для котят 0,4 кг</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>09.01.2026</t>
+          <t>01.10.2025</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1024,22 +1024,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2205</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>064992718930</t>
+          <t>4627079680580</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ORIJEN CAT GUARDIAN 8  4,5кг- Биологически соответствующий   корм для кошек</t>
+          <t>BLITZ KITTEN /индейка/Полнорационный корм для котят 10 кг</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>09.01.2026</t>
+          <t>09.09.2025</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -1076,22 +1076,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2206</t>
+          <t>4403</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>064992283346</t>
+          <t>4627079680160</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ORIJEN CAT TUNDRA  0,340кг- Биологически соответствующий   корм для кошек</t>
+          <t>BLITZ ADULT CATS TURKEY/индейка/Полнорационный корм для кошек 0,4 кг</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>21.10.2025</t>
+          <t>09.09.2025</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1128,22 +1128,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2210</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>064992282349</t>
+          <t>4627079680214</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ORIJEN CAT REGIONAL RED 0,34 кг- Биологически соответствующий корм для кошек всех пород </t>
+          <t>BLITZ ADULT CATS LAMB /ягненок/ Полнорационный корм для кошек 0,4 кг</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17.10.2025</t>
+          <t>10.09.2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1180,22 +1180,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2211</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>064992282189</t>
+          <t>4627079680535</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ORIJEN CAT REGIONAL RED 1,8 кг- Биологически соответствующий корм для кошек всех пород </t>
+          <t>BLITZ STERILISED CATS TURKEY/индейка/ Полнорационный корм для стерилизованных кошек 0,4 кг</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>07.12.2025</t>
+          <t>01.11.2025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1232,22 +1232,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2028</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>064992181123</t>
+          <t>4627079683000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ORIJEN PUPPY LARGE 11,4кг-Биологически соответствующий   корм для щенков крупных пород</t>
+          <t>BLITZ ADULT CATS BEEF /говядина/ Полнорационный корм для кошек 0,4 кг</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>24.10.2025</t>
+          <t>01.10.2025</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1284,22 +1284,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2052</t>
+          <t>4156</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>064992186203</t>
+          <t>4627079680511</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ORIJEN DOG SENIOR 2кг - Биологически соответствующий   корм для пожилых собак всех пород</t>
+          <t xml:space="preserve">BLITZ  ADULT MINI&amp;TOY/курица/Полнорационный корм для собак миниатюрных и мелких пород 0,5 кг </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>04.10.2025</t>
+          <t>12.10.2025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1336,22 +1336,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2054</t>
+          <t>4159</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>064992186128</t>
+          <t>4627079681341</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ORIJEN DOG SENIOR  11,4кг- Биологически соответствующий   корм для пожилых собак всех пород</t>
+          <t>BLITZ ADULT DOG POULTRY/домашняя птица/ Полнорационный корм для собак 15 кг</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16.01.2026</t>
+          <t>25.10.2025</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1388,22 +1388,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2214</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>064992185206</t>
+          <t>4627079681587</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ORIJEN DOG TUNDRA  2кг- Биологически соответствующий   корм для собак</t>
+          <t>BLITZ PUPPY LARGE &amp; GIANT/курица/Полнорационный корм для щенков крупных пород 15 кг</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15.11.2025</t>
+          <t>14.07.2025</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1440,22 +1440,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2222</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>064992184209</t>
+          <t>4627079680115</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">ORIJEN DOG REGIONAL RED 2 кг- Биологически соответствующий корм для собак всех пород </t>
+          <t>BLITZ  ADULT LAMB&amp;RICE/ягненок/Полнорационный корм для собак 15 кг</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>28.11.2025</t>
+          <t>13.10.2025</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1492,22 +1492,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2228</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>064992185121</t>
+          <t>4627079680139</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ORIJEN DOG TUNDRA 11,4кг- Биологически соответствующий  корм для собак</t>
+          <t xml:space="preserve">BLITZ ADULT TURKEY&amp;BARLEY/индейка+ячмень/Полнорационный  корм для собак 15 кг </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15.11.2025</t>
+          <t>06.11.2025</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1544,22 +1544,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4350</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4627079680191</t>
+          <t>4660270570939</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BLITZ ADULT CATS CHICKEN /курица/Полнорационный корм для кошек 0,4 кг</t>
+          <t xml:space="preserve">BLITZ  PUPPY LAMB&amp;RICE/ягненок+рис/ Полнорационный корм для щенков всех пород 1,8 кг </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>09.08.2025</t>
+          <t>30.11.2025</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1596,22 +1596,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4356</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4627079680764</t>
+          <t>4660270570960</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BLITZ ADULT CATS POULTRY /домашняя птица/ Полнорационный корм для кошек 10 кг</t>
+          <t>BLITZ ADULT SMALL LAMB&amp;RICE/ягненок+рис/ Полнорационный корм для собак мелких пород 1,8 кг</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>28.08.2025</t>
+          <t>12.10.2025</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1648,22 +1648,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4357</t>
+          <t>4217</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4627079681143</t>
+          <t>4660270571028</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BLITZ STERILISED CATS CHIKEN /курица/Полнорационный корм для стерилизованных кошек 0,4 кг</t>
+          <t>BLITZ ADULT BEEF &amp; RICE/говядина+рис/ Полнорационный корм для взрослых собак 1,8 кг</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>01.11.2025</t>
+          <t>30.11.2025</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1700,22 +1700,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4400</t>
+          <t>4218</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4627079680566</t>
+          <t>4660270571042</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BLITZ KITTEN /индейка/ /Полнорационный корм для котят 0,4 кг</t>
+          <t>BLITZ ADULT LIGHT &amp; FIT/индейка/ Полнорационный корм для собак с избыточным весом 1,8 кг</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>01.10.2025</t>
+          <t>05.10.2025</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1752,22 +1752,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4402</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4627079680580</t>
+          <t>4660270571066</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BLITZ KITTEN /индейка/Полнорационный корм для котят 10 кг</t>
+          <t xml:space="preserve">BLITZ ADULT SENIOR/Полнорационный корм для собак всех пород старше 7 лет 1,8 кг </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>09.09.2025</t>
+          <t>05.10.2025</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1804,22 +1804,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4403</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4627079680160</t>
+          <t>4660270571073</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BLITZ ADULT CATS TURKEY/индейка/Полнорационный корм для кошек 0,4 кг</t>
+          <t xml:space="preserve">BLITZ ADULT SENIOR/Полнорационный корм для собак всех пород старше 7 лет 15 кг </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>09.09.2025</t>
+          <t>05.10.2025</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1856,22 +1856,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4406</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4627079680214</t>
+          <t>4660270570908</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BLITZ ADULT CATS LAMB /ягненок/ Полнорационный корм для кошек 0,4 кг</t>
+          <t>BLITZ ADULT SALMON &amp; RICE /лосось+рис/ Полнорационный корм для взрослых собак всех пород 1,8 кг</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>10.09.2025</t>
+          <t>20.10.2025</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1908,22 +1908,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4410</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4627079680535</t>
+          <t>4627079681846</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BLITZ STERILISED CATS TURKEY/индейка/ Полнорационный корм для стерилизованных кошек 0,4 кг</t>
+          <t>BLITZ ЛОСОСЬ С КРЕВЕТКАМИ/нежное суфле/ корм консервированный полнорационный для кошек 200 гр  /holistic/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>01.11.2025</t>
+          <t>20.01.2026</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1960,22 +1960,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4411</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4627079680542</t>
+          <t>4627079681907</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BLITZ STERILISED CATS TURKEY/индейка/ Полнорационный корм для стерилизованных кошек 2 кг</t>
+          <t>BLITZ ТЕЛЯТИНА С ПОЧКАМИ/паштет/ корм консервированный полнорационный для кошек 200 гр  /holistic/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>01.11.2025</t>
+          <t>27.02.2026</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2012,22 +2012,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4413</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4627079683000</t>
+          <t>4627079681860</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BLITZ ADULT CATS BEEF /говядина/ Полнорационный корм для кошек 0,4 кг</t>
+          <t>BLITZ КРОЛИК С ИНДЕЙКОЙ/нежное суфле/ корм консервированный полнорационный для стерилизованных кошек  200 гр  /holistic/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>01.10.2025</t>
+          <t>28.02.2026</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2064,22 +2064,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4153</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4627079680719</t>
+          <t>4627079681884</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BLITZ ADULT CHICKEN &amp; RICE /курица+рис/ Полнорационный корм для собак 15 кг</t>
+          <t>BLITZ УТКА С ИНДЕЙКОЙ/паштет/ корм консервированный полнорационный для стерилизованных кошек 200 гр  /holistic/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12.09.2025</t>
+          <t>03.04.2026</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2116,22 +2116,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4156</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4627079680511</t>
+          <t>4627079681822</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLITZ  ADULT MINI&amp;TOY/курица/Полнорационный корм для собак миниатюрных и мелких пород 0,5 кг </t>
+          <t>BLITZ Starter ИНДЕЙКА/суфле/корм консервированный полнорационный  для котят, беременных и  кормящих кошек 200 гр  /holistic/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12.10.2025</t>
+          <t>31.03.2026</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2168,22 +2168,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4159</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4627079681341</t>
+          <t>4627079681563</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BLITZ ADULT DOG POULTRY/домашняя птица/ Полнорационный корм для собак 15 кг</t>
+          <t>BLITZ КУРИЦА С ТЕЛЯТИНОЙ/паштет/ корм консервированный полнорационный  для собак  400 гр /classic/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>25.10.2025</t>
+          <t>10.08.2025</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2220,22 +2220,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4161</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4627079681587</t>
+          <t>4627079681198</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BLITZ PUPPY LARGE &amp; GIANT/курица/Полнорационный корм для щенков крупных пород 15 кг</t>
+          <t>BLITZ КУРИЦА С РИСОМ корм консервированный полнорационный  для собак 400 гр /classic/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14.07.2025</t>
+          <t>02.02.2025</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2272,22 +2272,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4204</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4627079680115</t>
+          <t>4627079681235</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BLITZ  ADULT LAMB&amp;RICE/ягненок/Полнорационный корм для собак 15 кг</t>
+          <t>BLITZ STARTER ИНДЕЙКА С ЦУКИНИ /суфле/ корм консервированный полнорационный для щенков, беременных и кормящих сук 200 гр /sensitive/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13.10.2025</t>
+          <t>20.11.2024</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2324,22 +2324,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4209</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4627079680139</t>
+          <t>4627079681525</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLITZ ADULT TURKEY&amp;BARLEY/индейка+ячмень/Полнорационный  корм для собак 15 кг </t>
+          <t>BLITZ УТКА С ЦУКИНИ/паштет/ корм консервированный полнорационный  для собак мелких пород  200 гр /sensitive/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>06.11.2025</t>
+          <t>20.01.2026</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2376,22 +2376,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4215</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4660270570939</t>
+          <t>4627079681549</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLITZ  PUPPY LAMB&amp;RICE/ягненок+рис/ Полнорационный корм для щенков всех пород 1,8 кг </t>
+          <t>BLITZ ГОВЯДИНА С ТЫКВОЙ корм консервированный полнорационный  для собак мелких пород  200 гр /sensitive/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>30.11.2025</t>
+          <t>27.02.2026</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2428,22 +2428,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4216</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4660270570960</t>
+          <t>4627079681464</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BLITZ ADULT SMALL LAMB&amp;RICE/ягненок+рис/ Полнорационный корм для собак мелких пород 1,8 кг</t>
+          <t>BLITZ ЯГНЕНОК С ИНДЕЙКОЙ, корм консерв.полнорац. для собак всех пород и возрастов, 200 гр /sensitive/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12.10.2025</t>
+          <t>30.07.2025</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2480,22 +2480,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4217</t>
+          <t>4054</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4660270571028</t>
+          <t>4627079680962</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BLITZ ADULT BEEF &amp; RICE/говядина+рис/ Полнорационный корм для взрослых собак 1,8 кг</t>
+          <t>BLITZ ЯГНЕНОК С ИНДЕЙКОЙ корм консервированный полнорационный  для собак 400 гр /sensitive/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>30.11.2025</t>
+          <t>01.03.2026</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2532,22 +2532,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4218</t>
+          <t>4055</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4660270571042</t>
+          <t>4627079681488</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BLITZ ADULT LIGHT &amp; FIT/ Полнорационный корм для взрослых собак всех пород с лишним весом 1,8 кг</t>
+          <t>BLITZ ИНДЕЙКА С ПЕЧЕНЬЮ корм консервированный полнорационный для собак 200 гр  /sensitive/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>05.10.2025</t>
+          <t>22.10.2025</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2584,22 +2584,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4219</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4660270571066</t>
+          <t>4627079681501</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLITZ ADULT SENIOR/Полнорационный корм для собак всех пород старше 7 лет 1,8 кг </t>
+          <t>BLITZ ГОВЯДИНА С ИНДЕЙКОЙ корм консервированный полнорационный для собак  200 гр /sensitive/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>05.10.2025</t>
+          <t>13.11.2025</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2636,22 +2636,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4220</t>
+          <t>4058</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4660270571073</t>
+          <t>4627079681006</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLITZ ADULT SENIOR/Полнорационный корм для собак всех пород старше 7 лет 15 кг </t>
+          <t>BLITZ ГОВЯДИНА С ИНДЕЙКОЙ корм консервированный полнорационный  для собак мелких пород  400 гр/sensitive/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>05.10.2025</t>
+          <t>01.03.2026</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2688,22 +2688,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4221</t>
+          <t>4508</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4660270570908</t>
+          <t>4627079681082</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BLITZ ADULT SALMON &amp; RICE /лосось+рис/ Полнорационный корм для взрослых собак всех пород 1,8 кг</t>
+          <t>BLITZ STERILISED КУРИЦА И БРУСНИКА /кусочки  в желе/ корм влажный полнорационн  для стерилизованных кошек 85 гр /сlassic/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>20.10.2025</t>
+          <t>24.04.2026</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2740,22 +2740,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4108</t>
+          <t>4501</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4627079681846</t>
+          <t>4627079681327</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BLITZ ЛОСОСЬ С КРЕВЕТКАМИ/нежное суфле/ корм консервированный полнорационный для кошек 200 гр  /holistic/</t>
+          <t>BLITZ КРОЛИК С ИНДЕЙКОЙ /кусочки в соусе/ корм влажный полнорационный для стерилизованных кошек 85гр /sensitive/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>20.01.2026</t>
+          <t>24.04.2026</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2792,22 +2792,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>4503</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4627079681907</t>
+          <t>4627079680863</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BLITZ ТЕЛЯТИНА С ПОЧКАМИ/паштет/ корм консервированный полнорационный для кошек 200 гр  /holistic/</t>
+          <t>BLITZ  ЯГНЕНОК С ИНДЕЙКОЙ  /кусочки в желе/ корм влажный полнорационный для  кошек 85гр /sensitive/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>27.02.2026</t>
+          <t>12.06.2026</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2844,22 +2844,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4110</t>
+          <t>4504</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4627079681860</t>
+          <t>4627079680870</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BLITZ КРОЛИК С ИНДЕЙКОЙ/нежное суфле/ корм консервированный полнорационный для стерилизованных кошек  200 гр  /holistic/</t>
+          <t>BLITZ ИНДЕЙКА С ПЕЧЕНЬЮ /кусочки в соусе/ корм влажный полнорационный для  кошек 85гр /sensitive/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>28.02.2026</t>
+          <t>10.06.2026</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2896,22 +2896,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4111</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4627079681884</t>
+          <t>4627079681747</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BLITZ УТКА С ИНДЕЙКОЙ/паштет/ корм консервированный полнорационный для стерилизованных кошек 200 гр  /holistic/</t>
+          <t>BLITZ DOG LAMB/ЯГНЕНОК С ЛОСОСЕМ /кусочки в соусе/ корм влажный полнорационный для собак мелких пород 85гр /holistic/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>03.04.2026</t>
+          <t>30.05.2026</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2948,22 +2948,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4115</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4627079681822</t>
+          <t>4631155170810</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BLITZ Starter ИНДЕЙКА/суфле/корм консервированный полнорационный  для котят, беременных и  кормящих кошек 200 гр  /holistic/</t>
+          <t>BLITZ Лакомство сублимированное для собак "ЛЕГКОЕ", 30 г</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>31.03.2026</t>
+          <t>22.09.2025</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -3000,22 +3000,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4100</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4627079681563</t>
+          <t>4631155170803</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BLITZ КУРИЦА С ТЕЛЯТИНОЙ/паштет/ корм консервированный полнорационный  для собак  400 гр /classic/</t>
+          <t>BLITZ Лакомство сублимированное для собак "РУБЕЦ", 35 г</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10.08.2025</t>
+          <t>09.07.2025</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -3052,22 +3052,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4105</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4627079681198</t>
+          <t>4631156683852</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BLITZ КУРИЦА С РИСОМ корм консервированный полнорационный  для собак 400 гр /classic/</t>
+          <t xml:space="preserve">BLITZ Лакомство сублимированное для собак "СЕМЕННИКИ" 43 г </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>02.02.2025</t>
+          <t>20.03.2025</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3104,22 +3104,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4050</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4627079681235</t>
+          <t>4631161987457</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BLITZ STARTER ИНДЕЙКА С ЦУКИНИ /суфле/ корм консервированный полнорационный для щенков, беременных и кормящих сук 200 гр /sensitive/</t>
+          <t>BLITZ Лакомство сублимированное для собак "ПОЧКИ ГОВЯЖЬИ", 60 г</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>20.11.2024</t>
+          <t>20.03.2025</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3153,838 +3153,6 @@
       <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="inlineStr"/>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>4051</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>4627079681525</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>BLITZ УТКА С ЦУКИНИ/паштет/ корм консервированный полнорационный  для собак мелких пород  200 гр /sensitive/</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>20.01.2026</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr"/>
-      <c r="AH51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>4052</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>4627079681549</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>BLITZ ГОВЯДИНА С ТЫКВОЙ корм консервированный полнорационный  для собак мелких пород  200 гр /sensitive/</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>23.10.2025</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="inlineStr"/>
-      <c r="AH52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>4053</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>4627079681464</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>BLITZ ЯГНЕНОК С ИНДЕЙКОЙ, корм консерв.полнорац. для собак всех пород и возрастов, 200 гр /sensitive/</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>30.07.2025</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="inlineStr"/>
-      <c r="AG53" t="inlineStr"/>
-      <c r="AH53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>4054</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>4627079680962</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>BLITZ ЯГНЕНОК С ИНДЕЙКОЙ корм консервированный полнорационный  для собак 400 гр /sensitive/</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>01.03.2026</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
-      <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>4055</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>4627079681488</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>BLITZ ИНДЕЙКА С ПЕЧЕНЬЮ корм консервированный полнорационный для собак 200 гр  /sensitive/</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>22.10.2025</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
-      <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="inlineStr"/>
-      <c r="AG55" t="inlineStr"/>
-      <c r="AH55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>4057</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>4627079681501</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>BLITZ ГОВЯДИНА С ИНДЕЙКОЙ корм консервированный полнорационный для собак  200 гр /sensitive/</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>13.11.2025</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="inlineStr"/>
-      <c r="AG56" t="inlineStr"/>
-      <c r="AH56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>4058</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>4627079681006</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>BLITZ ГОВЯДИНА С ИНДЕЙКОЙ корм консервированный полнорационный  для собак мелких пород  400 гр/sensitive/</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>01.03.2026</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
-      <c r="AH57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>4508</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>4627079681082</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>BLITZ STERILISED КУРИЦА И БРУСНИКА /кусочки  в желе/ корм влажный полнорационн  для стерилизованных кошек 85 гр /сlassic/</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>24.04.2026</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
-      <c r="AH58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>4501</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>4627079681327</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>BLITZ КРОЛИК С ИНДЕЙКОЙ /кусочки в соусе/ корм влажный полнорационный для стерилизованных кошек 85гр /sensitive/</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>24.04.2026</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
-      <c r="AH59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>4503</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>4627079680863</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>BLITZ  ЯГНЕНОК С ИНДЕЙКОЙ  /кусочки в желе/ корм влажный полнорационный для  кошек 85гр /sensitive/</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>12.06.2026</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="inlineStr"/>
-      <c r="AH60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>4504</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>4627079680870</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>BLITZ ИНДЕЙКА С ПЕЧЕНЬЮ /кусочки в соусе/ корм влажный полнорационный для  кошек 85гр /sensitive/</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>10.06.2026</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
-      <c r="AH61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>4627079681747</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>BLITZ DOG LAMB/ЯГНЕНОК С ЛОСОСЕМ /кусочки в соусе/ корм влажный полнорационный для собак мелких пород 85гр /holistic/</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>30.05.2026</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
-      <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr"/>
-      <c r="AH62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>4000</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>4631155170810</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>BLITZ Лакомство сублимированное для собак "ЛЕГКОЕ", 30 г</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>22.09.2025</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
-      <c r="AF63" t="inlineStr"/>
-      <c r="AG63" t="inlineStr"/>
-      <c r="AH63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>4008</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>4631155170803</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>BLITZ Лакомство сублимированное для собак "РУБЕЦ", 35 г</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>09.07.2025</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="inlineStr"/>
-      <c r="AE64" t="inlineStr"/>
-      <c r="AF64" t="inlineStr"/>
-      <c r="AG64" t="inlineStr"/>
-      <c r="AH64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>4009</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>4631156683852</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLITZ Лакомство сублимированное для собак "СЕМЕННИКИ" 43 г </t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>20.03.2025</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
-      <c r="AG65" t="inlineStr"/>
-      <c r="AH65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>4010</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>4631161987457</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>BLITZ Лакомство сублимированное для собак "ПОЧКИ ГОВЯЖЬИ", 60 г</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>20.03.2025</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="inlineStr"/>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="inlineStr"/>
-      <c r="AG66" t="inlineStr"/>
-      <c r="AH66" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/new kartochki/spk.xlsx
+++ b/new kartochki/spk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AI73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,150 +456,155 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Цена с НДС</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Артикул_y</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Ozon Product ID</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>FBO OZON SKU ID</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>FBS OZON SKU ID</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>CrossBorder Ozon SKU</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Наименование товара</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Контент-рейтинг</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Бренд</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Статус товара</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Видимость FBO</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Причины скрытия FBO (при наличии)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Видимость FBS</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Причины скрытия FBS (при наличии)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Дата создания</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Категория комиссии</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Объем товара, л</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Объемный вес, кг</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Доступно к продаже по схеме FBO, шт.</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Вывезти и нанести КИЗ (кроме Твери), шт</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Зарезервировано, шт</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Доступно к продаже по схеме FBS, шт.</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Доступно к продаже по схеме realFBS, шт.</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Зарезервировано на моих складах, шт</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Текущая цена с учетом скидки, ₽</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Цена до скидки (перечеркнутая цена), ₽</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Цена Premium, ₽</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Рыночная цена, ₽</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Актуальная ссылка на рыночную цену</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Размер НДС, %</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Остаток</t>
         </is>
@@ -608,25 +613,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2229</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>064992723255</t>
+          <t>4627079680191</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ACANA CAT KITTEN 1,8 кг /птица+рыба/ беззерновой корм для котят 1,8 кг</t>
+          <t>BLITZ ADULT CAT CHICKEN /курица/Полнорационный корм для кошек 0,4 кг</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.05.2025</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>7.69</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -656,29 +663,32 @@
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2066</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>064992560218</t>
+          <t>4627079680252</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ACANA DOG PRAIRIE POULTRY  2 кг /цыпленок+индейка/ низкозерновой корм для собак 2 кг/classics/</t>
+          <t>BLITZ ADULT CATS CHICKEN/курица/Полнорационный корм для кошек 2 кг</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30.01.2026</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>01.10.2025</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>34.05</v>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -708,29 +718,32 @@
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2028</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>064992181123</t>
+          <t>4627079680252</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ORIJEN PUPPY LARGE 11,4кг-Биологически соответствующий   корм для щенков крупных пород</t>
+          <t>BLITZ ADULT CATS CHICKEN/курица/Полнорационный корм для кошек 2 кг</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.10.2025</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>01.11.2025</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>32.43</v>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -760,29 +773,32 @@
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2214</t>
+          <t>4352</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>064992185206</t>
+          <t>4627079680207</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ORIJEN DOG TUNDRA  2кг- Биологически соответствующий   корм для собак</t>
+          <t>BLITZ ADULT CATS CHICKEN /курица/Полнорационный  корм для кошек 10 кг</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.11.2025</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>01.10.2025</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>129.99</v>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -812,29 +828,32 @@
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4350</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4627079680191</t>
+          <t>4627079681136</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BLITZ ADULT CAT CHICKEN /курица/Полнорационный корм для кошек 0,4 кг</t>
+          <t>BLITZ STERILISED CATS CHIKEN /курица/Полнорационный корм для стерилизованных кошек 2 кг</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>09.08.2025</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>01.11.2025</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>35.97</v>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -864,29 +883,32 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4356</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4627079680764</t>
+          <t>4627079681129</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BLITZ ADULT CATS POULTRY /домашняя птица/ Полнорационный корм для кошек 10 кг</t>
+          <t>BLITZ STERILISED CATS CHIKEN /курица/Полнорационный корм для стерилизованных кошек 10 кг</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28.08.2025</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>09.09.2025</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>155.98</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -916,29 +938,32 @@
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4357</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4627079681143</t>
+          <t>4627079681105</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BLITZ STERILISED CATS CHIKEN /курица/Полнорационный корм для стерилизованных кошек 0,4 кг</t>
+          <t>BLITZ ADULT CATS POULTRY /домашняя птица/ Полнорационный корм для кошек 2 кг</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>01.11.2025</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>26.11.2025</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>29.9</v>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -968,29 +993,32 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4400</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4627079680566</t>
+          <t>4627079680764</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BLITZ KITTEN /индейка/ /Полнорационный корм для котят 0,4 кг</t>
+          <t>BLITZ ADULT CATS POULTRY /домашняя птица/ Полнорационный корм для кошек 10 кг</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>01.10.2025</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>28.08.2025</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>118.23</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -1020,29 +1048,32 @@
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4402</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4627079680580</t>
+          <t>4627079681143</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BLITZ KITTEN /индейка/Полнорационный корм для котят 10 кг</t>
+          <t>BLITZ STERILISED CATS CHIKEN /курица/Полнорационный корм для стерилизованных кошек 0,4 кг</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>09.09.2025</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>01.11.2025</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>9.09</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -1072,29 +1103,32 @@
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4403</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4627079680160</t>
+          <t>4627079680566</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BLITZ ADULT CATS TURKEY/индейка/Полнорационный корм для кошек 0,4 кг</t>
+          <t>BLITZ KITTEN /индейка/ /Полнорационный корм для котят 0,4 кг</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>09.09.2025</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>01.10.2025</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10.06</v>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -1124,29 +1158,32 @@
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4406</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4627079680214</t>
+          <t>4627079680580</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BLITZ ADULT CATS LAMB /ягненок/ Полнорационный корм для кошек 0,4 кг</t>
+          <t>BLITZ KITTEN /индейка/Полнорационный корм для котят 10 кг</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.09.2025</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>09.09.2025</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>168.78</v>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -1176,29 +1213,32 @@
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4410</t>
+          <t>4403</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4627079680535</t>
+          <t>4627079680160</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BLITZ STERILISED CATS TURKEY/индейка/ Полнорационный корм для стерилизованных кошек 0,4 кг</t>
+          <t>BLITZ ADULT CATS TURKEY/индейка/Полнорационный корм для кошек 0,4 кг</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>01.11.2025</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>09.09.2025</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -1228,29 +1268,32 @@
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4413</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4627079683000</t>
+          <t>4627079680184</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BLITZ ADULT CATS BEEF /говядина/ Полнорационный корм для кошек 0,4 кг</t>
+          <t>BLITZ ADULT CATS TURKEY/индейка/ Полнорационный корм для кошек 10 кг</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>01.10.2025</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>09.09.2025</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>149.54</v>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -1280,29 +1323,32 @@
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4156</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4627079680511</t>
+          <t>4627079680214</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLITZ  ADULT MINI&amp;TOY/курица/Полнорационный корм для собак миниатюрных и мелких пород 0,5 кг </t>
+          <t>BLITZ ADULT CATS LAMB /ягненок/ Полнорационный корм для кошек 0,4 кг</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12.10.2025</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>10.09.2025</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>9.630000000000001</v>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -1332,29 +1378,32 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4159</t>
+          <t>4407</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4627079681341</t>
+          <t>4627079680276</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BLITZ ADULT DOG POULTRY/домашняя птица/ Полнорационный корм для собак 15 кг</t>
+          <t>BLITZ ADULT CATS LAMB /ягненок/ Полнорационный корм для кошек 2 кг</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25.10.2025</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>10.09.2025</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>40</v>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -1384,29 +1433,32 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4161</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4627079681587</t>
+          <t>4627079680238</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BLITZ PUPPY LARGE &amp; GIANT/курица/Полнорационный корм для щенков крупных пород 15 кг</t>
+          <t>BLITZ ADULT CATS LAMB /ягненок/ Полнорационный корм для кошек 10 кг</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14.07.2025</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>16.06.2025</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>155.6</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1436,29 +1488,32 @@
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4204</t>
+          <t>4409</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4627079680115</t>
+          <t>4627079681365</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BLITZ  ADULT LAMB&amp;RICE/ягненок/Полнорационный корм для собак 15 кг</t>
+          <t>BLITZ  ADULT CATS BEEF/говядина/ Полнорационный корм для кошек 10 кг</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13.10.2025</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>09.09.2025</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>139.94</v>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1488,29 +1543,32 @@
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4209</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4627079680139</t>
+          <t>4627079680535</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLITZ ADULT TURKEY&amp;BARLEY/индейка+ячмень/Полнорационный  корм для собак 15 кг </t>
+          <t>BLITZ STERILISED CATS TURKEY/индейка/ Полнорационный корм для стерилизованных кошек 0,4 кг</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>06.11.2025</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>01.11.2025</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>10.06</v>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1540,29 +1598,32 @@
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4215</t>
+          <t>4412</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4660270570939</t>
+          <t>4627079680559</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLITZ  PUPPY LAMB&amp;RICE/ягненок+рис/ Полнорационный корм для щенков всех пород 1,8 кг </t>
+          <t>BLITZ STERILISED CATS TURKEY/индейка/ Полнорационный корм для стерилизованных кошек 10 кг</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30.11.2025</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>29.07.2025</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>183.38</v>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1592,29 +1653,32 @@
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4216</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4660270570960</t>
+          <t>4627079683000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BLITZ ADULT SMALL LAMB&amp;RICE/ягненок+рис/ Полнорационный корм для собак мелких пород 1,8 кг</t>
+          <t>BLITZ ADULT CATS BEEF /говядина/ Полнорационный корм для кошек 0,4 кг</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12.10.2025</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>01.10.2025</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>8.470000000000001</v>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1644,29 +1708,32 @@
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4217</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4660270571028</t>
+          <t>4627079682997</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BLITZ ADULT BEEF &amp; RICE/говядина+рис/ Полнорационный корм для взрослых собак 1,8 кг</t>
+          <t>BLITZ ADULT CATS BEEF /говядина/ Полнорационный корм для кошек 2 кг</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30.11.2025</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>01.10.2025</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>33.84</v>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1696,29 +1763,32 @@
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4218</t>
+          <t>4156</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4660270571042</t>
+          <t>4627079680511</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BLITZ ADULT LIGHT &amp; FIT/индейка/ Полнорационный корм для собак с избыточным весом 1,8 кг</t>
+          <t xml:space="preserve">BLITZ  ADULT MINI&amp;TOY/курица/Полнорационный корм для собак миниатюрных и мелких пород 0,5 кг </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>05.10.2025</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>12.10.2025</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>8.470000000000001</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1748,29 +1818,32 @@
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4219</t>
+          <t>4159</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4660270571066</t>
+          <t>4627079681341</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLITZ ADULT SENIOR/Полнорационный корм для собак всех пород старше 7 лет 1,8 кг </t>
+          <t>BLITZ ADULT DOG POULTRY/домашняя птица/ Полнорационный корм для собак 15 кг</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>05.10.2025</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>25.10.2025</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>120.02</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1800,29 +1873,32 @@
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4220</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4660270571073</t>
+          <t>4627079680115</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLITZ ADULT SENIOR/Полнорационный корм для собак всех пород старше 7 лет 15 кг </t>
+          <t>BLITZ  ADULT LAMB&amp;RICE/ягненок/Полнорационный корм для собак 15 кг</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>05.10.2025</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>13.10.2025</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>206.56</v>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1852,29 +1928,32 @@
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4221</t>
+          <t>4207</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4660270570908</t>
+          <t>4660270570977</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BLITZ ADULT SALMON &amp; RICE /лосось+рис/ Полнорационный корм для взрослых собак всех пород 1,8 кг</t>
+          <t xml:space="preserve">BLITZ ADULT SMALL LAMB&amp;RICE/ягненок+рис/ Полнорационный корм для собак мелких пород 7 кг </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>20.10.2025</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>12.10.2025</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100.78</v>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1904,29 +1983,32 @@
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4108</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4627079681846</t>
+          <t>4627079680139</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BLITZ ЛОСОСЬ С КРЕВЕТКАМИ/нежное суфле/ корм консервированный полнорационный для кошек 200 гр  /holistic/</t>
+          <t xml:space="preserve">BLITZ ADULT TURKEY&amp;BARLEY/индейка+ячмень/Полнорационный  корм для собак 15 кг </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>20.01.2026</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>06.11.2025</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>179.12</v>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1956,29 +2038,32 @@
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4627079681907</t>
+          <t>4660270571035</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BLITZ ТЕЛЯТИНА С ПОЧКАМИ/паштет/ корм консервированный полнорационный для кошек 200 гр  /holistic/</t>
+          <t>BLITZ ADULT BEEF &amp; RICE/говядина+рис/ Полнорационный корм для взрослых собак 15 кг</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>27.02.2026</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>20.10.2025</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>198.69</v>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -2008,29 +2093,32 @@
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4110</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4627079681860</t>
+          <t>4660270570915</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BLITZ КРОЛИК С ИНДЕЙКОЙ/нежное суфле/ корм консервированный полнорационный для стерилизованных кошек  200 гр  /holistic/</t>
+          <t>BLITZ ADULT SALMON &amp; RICE /лосось+рис/ Полнорационный корм для собак 15 кг</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28.02.2026</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>20.10.2025</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>203.17</v>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -2060,29 +2148,32 @@
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4111</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4627079681884</t>
+          <t>4660270571059</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BLITZ УТКА С ИНДЕЙКОЙ/паштет/ корм консервированный полнорационный для стерилизованных кошек 200 гр  /holistic/</t>
+          <t>BLITZ ADULT LIGHT &amp; FIT/индейка/ Полнорационный корм для собак с избыточным весом 15 кг</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>03.04.2026</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>183.32</v>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -2112,29 +2203,32 @@
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4115</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4627079681822</t>
+          <t>4660270570939</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BLITZ Starter ИНДЕЙКА/суфле/корм консервированный полнорационный  для котят, беременных и  кормящих кошек 200 гр  /holistic/</t>
+          <t xml:space="preserve">BLITZ  PUPPY LAMB&amp;RICE/ягненок+рис/ Полнорационный корм для щенков всех пород 1,8 кг </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>31.03.2026</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>30.11.2025</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>34.16</v>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -2164,29 +2258,32 @@
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4100</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4627079681563</t>
+          <t>4660270570960</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BLITZ КУРИЦА С ТЕЛЯТИНОЙ/паштет/ корм консервированный полнорационный  для собак  400 гр /classic/</t>
+          <t>BLITZ ADULT SMALL LAMB&amp;RICE/ягненок+рис/ Полнорационный корм для собак мелких пород 1,8 кг</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10.08.2025</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>12.10.2025</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>33.84</v>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -2216,29 +2313,32 @@
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4105</t>
+          <t>4218</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4627079681198</t>
+          <t>4660270571042</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BLITZ КУРИЦА С РИСОМ корм консервированный полнорационный  для собак 400 гр /classic/</t>
+          <t>BLITZ ADULT LIGHT &amp; FIT/индейка/ Полнорационный корм для собак с избыточным весом 1,8 кг</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>02.02.2025</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>30.28</v>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -2268,29 +2368,32 @@
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4050</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4627079681235</t>
+          <t>4660270571066</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BLITZ STARTER ИНДЕЙКА С ЦУКИНИ /суфле/ корм консервированный полнорационный для щенков, беременных и кормящих сук 200 гр /sensitive/</t>
+          <t xml:space="preserve">BLITZ ADULT SENIOR/Полнорационный корм для собак всех пород старше 7 лет 1,8 кг </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>20.11.2024</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>30.3</v>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -2320,29 +2423,32 @@
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4051</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4627079681525</t>
+          <t>4660270571073</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BLITZ УТКА С ЦУКИНИ/паштет/ корм консервированный полнорационный  для собак мелких пород  200 гр /sensitive/</t>
+          <t xml:space="preserve">BLITZ ADULT SENIOR/Полнорационный корм для собак всех пород старше 7 лет 15 кг </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>20.01.2026</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>174.5</v>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -2372,29 +2478,32 @@
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4052</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4627079681549</t>
+          <t>4660270570908</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BLITZ ГОВЯДИНА С ТЫКВОЙ корм консервированный полнорационный  для собак мелких пород  200 гр /sensitive/</t>
+          <t>BLITZ ADULT SALMON &amp; RICE /лосось+рис/ Полнорационный корм для взрослых собак всех пород 1,8 кг</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>27.02.2026</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>20.10.2025</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>33.49</v>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -2424,29 +2533,32 @@
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4627079681464</t>
+          <t>4627079681846</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BLITZ ЯГНЕНОК С ИНДЕЙКОЙ, корм консерв.полнорац. для собак всех пород и возрастов, 200 гр /sensitive/</t>
+          <t>BLITZ ЛОСОСЬ С КРЕВЕТКАМИ/нежное суфле/ корм консервированный полнорационный для кошек 200 гр  /holistic/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>30.07.2025</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>20.01.2026</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6.22</v>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -2476,29 +2588,32 @@
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4054</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4627079680962</t>
+          <t>4627079681907</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BLITZ ЯГНЕНОК С ИНДЕЙКОЙ корм консервированный полнорационный  для собак 400 гр /sensitive/</t>
+          <t>BLITZ ТЕЛЯТИНА С ПОЧКАМИ/паштет/ корм консервированный полнорационный для кошек 200 гр  /holistic/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>01.03.2026</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>27.02.2026</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>6.22</v>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
@@ -2528,29 +2643,32 @@
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4055</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4627079681488</t>
+          <t>4627079681860</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BLITZ ИНДЕЙКА С ПЕЧЕНЬЮ корм консервированный полнорационный для собак 200 гр  /sensitive/</t>
+          <t>BLITZ КРОЛИК С ИНДЕЙКОЙ/нежное суфле/ корм консервированный полнорационный для стерилизованных кошек  200 гр  /holistic/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>22.10.2025</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>28.02.2026</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>6.22</v>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -2580,29 +2698,32 @@
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4627079681501</t>
+          <t>4627079681884</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BLITZ ГОВЯДИНА С ИНДЕЙКОЙ корм консервированный полнорационный для собак  200 гр /sensitive/</t>
+          <t>BLITZ УТКА С ИНДЕЙКОЙ/паштет/ корм консервированный полнорационный для стерилизованных кошек 200 гр  /holistic/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>13.11.2025</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>03.04.2026</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>6.22</v>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -2632,29 +2753,32 @@
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4058</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4627079681006</t>
+          <t>4627079681822</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BLITZ ГОВЯДИНА С ИНДЕЙКОЙ корм консервированный полнорационный  для собак мелких пород  400 гр/sensitive/</t>
+          <t>BLITZ Starter ИНДЕЙКА/суфле/корм консервированный полнорационный  для котят, беременных и  кормящих кошек 200 гр  /holistic/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>01.03.2026</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>31.03.2026</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>6.49</v>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -2684,29 +2808,32 @@
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4508</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4627079681082</t>
+          <t>4627079681563</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BLITZ STERILISED КУРИЦА И БРУСНИКА /кусочки  в желе/ корм влажный полнорационн  для стерилизованных кошек 85 гр /сlassic/</t>
+          <t>BLITZ КУРИЦА С ТЕЛЯТИНОЙ/паштет/ корм консервированный полнорационный  для собак  400 гр /classic/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>24.04.2026</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>6.22</v>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
@@ -2736,29 +2863,32 @@
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4501</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4627079681327</t>
+          <t>4627079681198</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BLITZ КРОЛИК С ИНДЕЙКОЙ /кусочки в соусе/ корм влажный полнорационный для стерилизованных кошек 85гр /sensitive/</t>
+          <t>BLITZ КУРИЦА С РИСОМ корм консервированный полнорационный  для собак 400 гр /classic/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>24.04.2026</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>02.02.2025</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>5.76</v>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -2788,29 +2918,32 @@
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4503</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4627079680863</t>
+          <t>4627079681235</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BLITZ  ЯГНЕНОК С ИНДЕЙКОЙ  /кусочки в желе/ корм влажный полнорационный для  кошек 85гр /sensitive/</t>
+          <t>BLITZ STARTER ИНДЕЙКА С ЦУКИНИ /суфле/ корм консервированный полнорационный для щенков, беременных и кормящих сук 200 гр /sensitive/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12.06.2026</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>20.11.2024</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>5.85</v>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -2840,29 +2973,32 @@
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4504</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4627079680870</t>
+          <t>4627079681525</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BLITZ ИНДЕЙКА С ПЕЧЕНЬЮ /кусочки в соусе/ корм влажный полнорационный для  кошек 85гр /sensitive/</t>
+          <t>BLITZ УТКА С ЦУКИНИ/паштет/ корм консервированный полнорационный  для собак мелких пород  200 гр /sensitive/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10.06.2026</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>20.01.2026</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>5.6</v>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -2892,29 +3028,32 @@
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4550</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4627079681747</t>
+          <t>4627079681549</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BLITZ DOG LAMB/ЯГНЕНОК С ЛОСОСЕМ /кусочки в соусе/ корм влажный полнорационный для собак мелких пород 85гр /holistic/</t>
+          <t>BLITZ ГОВЯДИНА С ТЫКВОЙ корм консервированный полнорационный  для собак мелких пород  200 гр /sensitive/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>30.05.2026</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>27.02.2026</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>5.77</v>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -2944,29 +3083,32 @@
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4631155170810</t>
+          <t>4627079681464</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BLITZ Лакомство сублимированное для собак "ЛЕГКОЕ", 30 г</t>
+          <t>BLITZ ЯГНЕНОК С ИНДЕЙКОЙ, корм консерв.полнорац. для собак всех пород и возрастов, 200 гр /sensitive/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>22.09.2025</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>30.07.2025</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>5.34</v>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -2996,29 +3138,32 @@
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4631155170803</t>
+          <t>4627079681464</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BLITZ Лакомство сублимированное для собак "РУБЕЦ", 35 г</t>
+          <t>BLITZ ЯГНЕНОК С ИНДЕЙКОЙ, корм консерв.полнорац. для собак всех пород и возрастов, 200 гр /sensitive/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>09.07.2025</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>03.12.2025</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>5.34</v>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -3048,29 +3193,32 @@
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>4054</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4631156683852</t>
+          <t>4627079680962</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLITZ Лакомство сублимированное для собак "СЕМЕННИКИ" 43 г </t>
+          <t>BLITZ ЯГНЕНОК С ИНДЕЙКОЙ корм консервированный полнорационный  для собак 400 гр /sensitive/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>20.03.2025</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>01.03.2026</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>8.18</v>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -3100,29 +3248,32 @@
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4055</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4631161987457</t>
+          <t>4627079681488</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BLITZ Лакомство сублимированное для собак "ПОЧКИ ГОВЯЖЬИ", 60 г</t>
+          <t>BLITZ ИНДЕЙКА С ПЕЧЕНЬЮ корм консервированный полнорационный для собак 200 гр  /sensitive/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>20.03.2025</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>22.10.2025</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>4.68</v>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -3152,6 +3303,1272 @@
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4057</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>4627079681501</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BLITZ ГОВЯДИНА С ИНДЕЙКОЙ корм консервированный полнорационный для собак  200 гр /sensitive/</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>13.11.2025</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4058</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>4627079681006</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BLITZ ГОВЯДИНА С ИНДЕЙКОЙ корм консервированный полнорационный  для собак мелких пород  400 гр/sensitive/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>01.03.2026</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4506</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>4627079680849</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BLITZ КУРИЦА С ПОТРОШКАМИ /кусочки в соусе/ корм влажный полнорационный  для кошек 85 гр /сlassic/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>18.01.2026</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4507</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>4627079680887</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>BLITZ КУРИЦА С ИНДЕЙКОЙ /кусочки  в желе/ корм влажный полнорационный  для кошек  85 гр /сlassic/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10.04.2026</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4508</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>4627079681082</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>BLITZ STERILISED КУРИЦА И БРУСНИКА /кусочки  в желе/ корм влажный полнорационн  для стерилизованных кошек 85 гр /сlassic/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>24.04.2026</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4509</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>4627079681808</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>BLITZ INDOOR/ КУРИЦА С ТЫКВОЙ /кусочки  в соусе/ корм влажный полнорационный  для стерилизованных кошек 85гр /сlassic/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>15.01.2026</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4112</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>4627079681686</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>BLITZ QUAIL/ПЕРЕПЕЛКА С ИНДЕЙКОЙ  /кусочки в соусе/ корм влажный полнорационный для стерилизованных кошек 85гр /holistic/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>31.05.2026</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4113</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>4627079681709</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>BLITZ SHRIMP/КРЕВЕТКИ С ИНДЕЙКОЙ  /кусочки в соусе/ корм влажный полнорационный для стерилизованных кошек 85гр /holistic/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>24.03.2026</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4114</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>4627079681723</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>BLITZ STERILISED / УТКА С ЛОСОСЕМ /кусочки в соусе/ корм влажный полнорационный для стерилизованных кошек 85гр /holistic/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>30.05.2026</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4627079680894</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>BLITZ KITTEN ИНДЕЙКА С ПОТРОШКАМИ /кусочки в соусе/ корм влажный полнорационный для  котят 85гр /sensitive/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>09.06.2026</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
+      <c r="AI60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4501</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4627079681327</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>BLITZ КРОЛИК С ИНДЕЙКОЙ /кусочки в соусе/ корм влажный полнорационный для стерилизованных кошек 85гр /sensitive/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>24.04.2026</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4502</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>4627079681303</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>BLITZ  ЛОСОСЬ С ИНДЕЙКОЙ /кусочки в соусе/ корм влажный полнорационный для стерилизованных кошек 85гр /sensitive/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>31.05.2026</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4503</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>4627079680863</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>BLITZ  ЯГНЕНОК С ИНДЕЙКОЙ  /кусочки в желе/ корм влажный полнорационный для  кошек 85гр /sensitive/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>12.06.2026</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
+      <c r="AI63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4504</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4627079680870</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>BLITZ ИНДЕЙКА С ПЕЧЕНЬЮ /кусочки в соусе/ корм влажный полнорационный для  кошек 85гр /sensitive/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10.06.2026</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4505</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>4627079680948</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>BLITZ STERILISED ИНДЕЙКА И КЛЮКВА /кусочки в соусе/ корм влажный полнорационный для стерилизованных кошек 85гр /sensitive/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>10.04.2026</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4510</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4627079681662</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>BLITZ STERILISED КРОЛИК И КЛЮКВА /кусочки в соусе/ корм влажный полнорационный для стерилизованных кошек 85гр /sensitive/</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>21.03.2026</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>4627079681747</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>BLITZ DOG LAMB/ЯГНЕНОК С ЛОСОСЕМ /кусочки в соусе/ корм влажный полнорационный для собак мелких пород 85гр /holistic/</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>30.05.2026</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4551</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>4627079681761</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>BLITZ  TURKEY / ИНДЕЙКА С УТКОЙ /кусочки в соусе/ корм влажный полнорационный для собак мелких пород 85гр /holistic/</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>08.02.2026</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4552</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>4627079681785</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>BLITZ  BEEF / ГОВЯДИНА С БЕЛОЙ РЫБОЙ/кусочки в соусе/ корм влажный полнорационный для собак мелких пород 85гр /holistic/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>08.02.2026</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
+      <c r="AI69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>4631155170810</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>BLITZ Лакомство сублимированное для собак "ЛЕГКОЕ", 30 г</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>22.09.2025</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr"/>
+      <c r="AG70" t="inlineStr"/>
+      <c r="AH70" t="inlineStr"/>
+      <c r="AI70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>4631155170803</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>BLITZ Лакомство сублимированное для собак "РУБЕЦ", 35 г</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>09.07.2025</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>4631156683852</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLITZ Лакомство сублимированное для собак "СЕМЕННИКИ" 43 г </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>20.03.2025</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>4631161987457</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>BLITZ Лакомство сублимированное для собак "ПОЧКИ ГОВЯЖЬИ", 60 г</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>20.03.2025</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
